--- a/projects/alignment-opti/plots_pub/align-res_opti-masking.xlsx
+++ b/projects/alignment-opti/plots_pub/align-res_opti-masking.xlsx
@@ -510,13 +510,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>99.25659210505113</v>
+        <v>99.25498067175282</v>
       </c>
       <c r="D2">
-        <v>77.09770057922964</v>
+        <v>76.69090535187283</v>
       </c>
       <c r="E2">
-        <v>3.907229456830166</v>
+        <v>3.90747328392995</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -548,13 +548,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>98.7977187983016</v>
+        <v>98.80281835500443</v>
       </c>
       <c r="D3">
-        <v>76.31249393203137</v>
+        <v>75.81785850780531</v>
       </c>
       <c r="E3">
-        <v>4.984644198899101</v>
+        <v>4.984632702542947</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>99.30707431077008</v>
+        <v>99.30510322657524</v>
       </c>
       <c r="D4">
-        <v>77.05969760096282</v>
+        <v>76.59216460765748</v>
       </c>
       <c r="E4">
-        <v>3.939000525981976</v>
+        <v>3.938176493462086</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -624,13 +624,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>99.10700554531</v>
+        <v>99.10840362942636</v>
       </c>
       <c r="D5">
-        <v>76.56024571505517</v>
+        <v>76.03619500984898</v>
       </c>
       <c r="E5">
-        <v>5.205927426852962</v>
+        <v>5.204058601444517</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -662,13 +662,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>98.65988781393334</v>
+        <v>98.65925812114786</v>
       </c>
       <c r="D6">
-        <v>74.78570890621231</v>
+        <v>74.30762632245414</v>
       </c>
       <c r="E6">
-        <v>5.220979911845463</v>
+        <v>5.219481434581921</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -700,13 +700,13 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>99.27967168399977</v>
+        <v>99.27990695726577</v>
       </c>
       <c r="D7">
-        <v>77.15936451362163</v>
+        <v>76.70860418142853</v>
       </c>
       <c r="E7">
-        <v>3.596492059580008</v>
+        <v>3.596483536622455</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>99.05900685620691</v>
+        <v>99.0573926181972</v>
       </c>
       <c r="D8">
-        <v>76.80575608346452</v>
+        <v>76.36560373373661</v>
       </c>
       <c r="E8">
-        <v>4.595719439818271</v>
+        <v>4.594382012706524</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -776,13 +776,13 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>98.80820221910945</v>
+        <v>98.80897718312204</v>
       </c>
       <c r="D9">
-        <v>76.73320568664994</v>
+        <v>76.31878479741886</v>
       </c>
       <c r="E9">
-        <v>4.306654000037255</v>
+        <v>4.307894718782444</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -814,13 +814,13 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>98.78325778725022</v>
+        <v>98.77900519316783</v>
       </c>
       <c r="D10">
-        <v>76.64669496132277</v>
+        <v>76.23880974992086</v>
       </c>
       <c r="E10">
-        <v>3.609341288250965</v>
+        <v>3.609074601667194</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>

--- a/projects/alignment-opti/plots_pub/align-res_opti-masking.xlsx
+++ b/projects/alignment-opti/plots_pub/align-res_opti-masking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>sample_name_unique</t>
   </si>
@@ -73,10 +73,7 @@
     <t>40h_1</t>
   </si>
   <si>
-    <t>40h_NoOx_1</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>False</t>
   </si>
   <si>
     <t>S1</t>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
   </si>
 </sst>
 </file>
@@ -461,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,344 +498,306 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>432</v>
+        <v>1512</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>99.25498067175282</v>
+        <v>99.27053892204847</v>
       </c>
       <c r="D2">
-        <v>76.69090535187283</v>
+        <v>74.027655903777</v>
       </c>
       <c r="E2">
-        <v>3.90747328392995</v>
+        <v>4.440943291238329</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0.95</v>
       </c>
       <c r="H2">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>433</v>
+        <v>1513</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>98.80281835500443</v>
+        <v>99.31815534589504</v>
       </c>
       <c r="D3">
-        <v>75.81785850780531</v>
+        <v>74.30138568129331</v>
       </c>
       <c r="E3">
-        <v>4.984632702542947</v>
+        <v>4.457906322170901</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>434</v>
+        <v>1514</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>99.30510322657524</v>
+        <v>98.68006956679432</v>
       </c>
       <c r="D4">
-        <v>76.59216460765748</v>
+        <v>72.13773775613342</v>
       </c>
       <c r="E4">
-        <v>3.938176493462086</v>
+        <v>5.911870705585674</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0.95</v>
       </c>
       <c r="H4">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>435</v>
+        <v>1515</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>99.10840362942636</v>
+        <v>99.29166895405103</v>
       </c>
       <c r="D5">
-        <v>76.03619500984898</v>
+        <v>74.22236228731563</v>
       </c>
       <c r="E5">
-        <v>5.204058601444517</v>
+        <v>4.060808259838651</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0.95</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>436</v>
+        <v>1516</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>98.65925812114786</v>
+        <v>98.82383710792956</v>
       </c>
       <c r="D6">
-        <v>74.30762632245414</v>
+        <v>74.13894165642355</v>
       </c>
       <c r="E6">
-        <v>5.219481434581921</v>
+        <v>4.857488448320816</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0.95</v>
       </c>
       <c r="H6">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>437</v>
+        <v>1517</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7">
-        <v>99.27990695726577</v>
+        <v>98.79549216381972</v>
       </c>
       <c r="D7">
-        <v>76.70860418142853</v>
+        <v>74.13284942606347</v>
       </c>
       <c r="E7">
-        <v>3.596483536622455</v>
+        <v>4.076637407157326</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0.95</v>
       </c>
       <c r="H7">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>438</v>
+        <v>1518</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>99.0573926181972</v>
+        <v>99.09193504566448</v>
       </c>
       <c r="D8">
-        <v>76.36560373373661</v>
+        <v>73.9528143138853</v>
       </c>
       <c r="E8">
-        <v>4.594382012706524</v>
+        <v>6.724284162620537</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0.95</v>
       </c>
       <c r="H8">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>439</v>
+        <v>1519</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>98.80897718312204</v>
+        <v>98.56170310665856</v>
       </c>
       <c r="D9">
-        <v>76.31878479741886</v>
+        <v>71.608583035256</v>
       </c>
       <c r="E9">
-        <v>4.307894718782444</v>
+        <v>6.21327083988175</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0.95</v>
       </c>
       <c r="H9">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>440</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>98.77900519316783</v>
-      </c>
-      <c r="D10">
-        <v>76.23880974992086</v>
-      </c>
-      <c r="E10">
-        <v>3.609074601667194</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.95</v>
-      </c>
-      <c r="H10">
-        <v>0.84</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
